--- a/data/trans_dic/P25A$voluntad-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P25A$voluntad-Dificultad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3255854766134855</v>
+        <v>0.3259752488096072</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6180106384425468</v>
+        <v>0.6235500456267009</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4730362852523016</v>
+        <v>0.4694883472909529</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5775995885268413</v>
+        <v>0.561167333664915</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7327957318367013</v>
+        <v>0.7254751175979284</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.537711194448064</v>
+        <v>0.5294679961742945</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4155790497560492</v>
+        <v>0.4158032537976755</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6765343580888823</v>
+        <v>0.6797146329923727</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5182905701816823</v>
+        <v>0.5186954130983804</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.507981361426542</v>
+        <v>0.5113715543713908</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7523827870134434</v>
+        <v>0.7512436140054924</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6206386515191495</v>
+        <v>0.6164551230866496</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.824654922275821</v>
+        <v>0.8182164885491685</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8825415988535599</v>
+        <v>0.8751079061543827</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7350792358058453</v>
+        <v>0.740669809433037</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5763134117832442</v>
+        <v>0.5709439738645706</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7746731243599393</v>
+        <v>0.7800141716107895</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6390200091323724</v>
+        <v>0.6313298359569199</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4754455194330072</v>
+        <v>0.4804535244577251</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.631282932583582</v>
+        <v>0.6404036787050247</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5223332551320712</v>
+        <v>0.5248306959338458</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4563628769464905</v>
+        <v>0.4469075546393606</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6957811999379446</v>
+        <v>0.6915555235983006</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5628238351605532</v>
+        <v>0.5602006148590213</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4962332871410826</v>
+        <v>0.4915384246653854</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.6723707090912403</v>
+        <v>0.6732481682914189</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5662037887116147</v>
+        <v>0.5606346542987896</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6144041965844289</v>
+        <v>0.6236995272217583</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.752645073934552</v>
+        <v>0.7531205024726406</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6842031671752181</v>
+        <v>0.6786467922237308</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7006303300471572</v>
+        <v>0.6747796624537842</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8440877255021865</v>
+        <v>0.8412538832800552</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7627002046821055</v>
+        <v>0.755827452205732</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6110642292159348</v>
+        <v>0.6076989067883497</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7651698549978728</v>
+        <v>0.7663027111071881</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.683708981239458</v>
+        <v>0.6818962117523503</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6125502572679112</v>
+        <v>0.6077188963420322</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5385432210280586</v>
+        <v>0.5349460887695912</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5937301789918694</v>
+        <v>0.5958112142888748</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6245016464235573</v>
+        <v>0.6138872162552312</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6507670042431101</v>
+        <v>0.6619982659322775</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6458848307401392</v>
+        <v>0.6425121206183174</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6354875214382868</v>
+        <v>0.634526663406254</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5925637283309952</v>
+        <v>0.5865548420985758</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6372039197121079</v>
+        <v>0.6319998324789358</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.736176277914237</v>
+        <v>0.7370972211742854</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6713734128084109</v>
+        <v>0.6695553391653086</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7514040359098021</v>
+        <v>0.7531172206640421</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8173580849477768</v>
+        <v>0.8126490707357041</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8285808619562359</v>
+        <v>0.8237151569843554</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8286678933718765</v>
+        <v>0.8276274604667598</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7419941431237567</v>
+        <v>0.735927094811974</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6989179139592343</v>
+        <v>0.6952785169135928</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7586153327597583</v>
+        <v>0.752828487068232</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5109362251505156</v>
+        <v>0.5207696420246064</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6581497350176428</v>
+        <v>0.6476009228252915</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5050911679518648</v>
+        <v>0.5008122423421602</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.469863994528749</v>
+        <v>0.4766093210264677</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5829017446738752</v>
+        <v>0.5812904575398623</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6669267076654781</v>
+        <v>0.6606787270104725</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5499291049811398</v>
+        <v>0.5422340159124255</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.669302572463516</v>
+        <v>0.671254733560731</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5909379181095302</v>
+        <v>0.5949256587179813</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7306038558943643</v>
+        <v>0.7335590361441604</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8349272292864613</v>
+        <v>0.8373894487523836</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7046505531377512</v>
+        <v>0.7033191064708069</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7954467201705669</v>
+        <v>0.7980611061402227</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8727135191661772</v>
+        <v>0.8570843684746614</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8688291288339041</v>
+        <v>0.8623448498399359</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7237171561660123</v>
+        <v>0.7249263118971248</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8178183887588312</v>
+        <v>0.8205365245362031</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7448454733755588</v>
+        <v>0.7370863390929242</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5359164466952692</v>
+        <v>0.540460459252189</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6392662920250698</v>
+        <v>0.6408055236158395</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5674195527758467</v>
+        <v>0.5687374639211723</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5964352600733062</v>
+        <v>0.6061988760547482</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7283220117253134</v>
+        <v>0.7261999192660348</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6393327727556657</v>
+        <v>0.6459053055167117</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5654534695309608</v>
+        <v>0.5653542312069063</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6791787954636707</v>
+        <v>0.680191208949479</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6091442518211728</v>
+        <v>0.6080139242569591</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6145619503221658</v>
+        <v>0.6175350287120039</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7088107415196755</v>
+        <v>0.7072774556604174</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6466830869440162</v>
+        <v>0.6484870595422654</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7217460642259538</v>
+        <v>0.728065894315739</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.812967022743867</v>
+        <v>0.8183346471538352</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7460046306350755</v>
+        <v>0.7524372685264649</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6329521552924086</v>
+        <v>0.6321610090458263</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7348156702600869</v>
+        <v>0.7332451224748787</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6713170889760677</v>
+        <v>0.6734877928153707</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>40847</v>
+        <v>40896</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>131982</v>
+        <v>133165</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>85289</v>
+        <v>84649</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>29901</v>
+        <v>29050</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>82972</v>
+        <v>82143</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>49782</v>
+        <v>49019</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>73650</v>
+        <v>73690</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>221083</v>
+        <v>222123</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>141432</v>
+        <v>141543</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>63729</v>
+        <v>64155</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>160679</v>
+        <v>160436</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>111902</v>
+        <v>111147</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>42690</v>
+        <v>42357</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>99928</v>
+        <v>99086</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>68054</v>
+        <v>68572</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>102136</v>
+        <v>101184</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>253154</v>
+        <v>254899</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>174377</v>
+        <v>172279</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>93638</v>
+        <v>94624</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>162392</v>
+        <v>164739</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>84353</v>
+        <v>84756</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>32158</v>
+        <v>31492</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>87612</v>
+        <v>87080</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>52340</v>
+        <v>52096</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>132699</v>
+        <v>131444</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>257627</v>
+        <v>257963</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>144092</v>
+        <v>142675</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>121005</v>
+        <v>122836</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>193612</v>
+        <v>193734</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>110494</v>
+        <v>109597</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>49371</v>
+        <v>47549</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>106287</v>
+        <v>105930</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>70927</v>
+        <v>70288</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>163407</v>
+        <v>162507</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>293184</v>
+        <v>293618</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>173996</v>
+        <v>173534</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>133545</v>
+        <v>132491</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>126738</v>
+        <v>125891</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>92238</v>
+        <v>92561</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>54107</v>
+        <v>53188</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>63626</v>
+        <v>64724</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>52388</v>
+        <v>52114</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>193604</v>
+        <v>193312</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>197385</v>
+        <v>195384</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>150675</v>
+        <v>149445</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>160497</v>
+        <v>160698</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>157997</v>
+        <v>157569</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>116733</v>
+        <v>116999</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>70817</v>
+        <v>70409</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>81011</v>
+        <v>80535</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>67213</v>
+        <v>67129</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>226052</v>
+        <v>224204</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>232812</v>
+        <v>231600</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>179384</v>
+        <v>178016</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>39776</v>
+        <v>40541</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>68241</v>
+        <v>67147</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>52369</v>
+        <v>51925</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>16761</v>
+        <v>17002</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>28397</v>
+        <v>28318</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>44111</v>
+        <v>43697</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>62429</v>
+        <v>61555</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>102003</v>
+        <v>102301</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>100354</v>
+        <v>101031</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>56877</v>
+        <v>57107</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>86570</v>
+        <v>86826</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>73060</v>
+        <v>72922</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>28375</v>
+        <v>28468</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>42515</v>
+        <v>41754</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>57464</v>
+        <v>57035</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>82157</v>
+        <v>82294</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>124637</v>
+        <v>125051</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>126490</v>
+        <v>125173</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>331339</v>
+        <v>334148</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>517693</v>
+        <v>518939</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>340922</v>
+        <v>341714</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>145856</v>
+        <v>148244</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>280865</v>
+        <v>280047</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>212786</v>
+        <v>214973</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>487881</v>
+        <v>487795</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>811928</v>
+        <v>813139</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>568730</v>
+        <v>567675</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>379963</v>
+        <v>381801</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>574011</v>
+        <v>572770</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>388546</v>
+        <v>389630</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>176500</v>
+        <v>178046</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>313507</v>
+        <v>315577</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>248289</v>
+        <v>250430</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>546119</v>
+        <v>545437</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>878440</v>
+        <v>876562</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>626778</v>
+        <v>628805</v>
       </c>
     </row>
     <row r="24">
